--- a/data/evaluation/evaluation_Center_Summer_Zucchini.xlsx
+++ b/data/evaluation/evaluation_Center_Summer_Zucchini.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>434.1439522448865</v>
+        <v>432.9215980836844</v>
       </c>
       <c r="C4" t="n">
-        <v>752073.6797211687</v>
+        <v>749459.7114254269</v>
       </c>
       <c r="D4" t="n">
-        <v>867.2218169079747</v>
+        <v>865.7134118317833</v>
       </c>
       <c r="E4" t="n">
-        <v>0.006493344365599341</v>
+        <v>0.009946456699486128</v>
       </c>
     </row>
     <row r="5">
